--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2652,28 +2652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1195.574904862401</v>
+        <v>1307.638004494543</v>
       </c>
       <c r="AB2" t="n">
-        <v>1635.838329874981</v>
+        <v>1789.168006666712</v>
       </c>
       <c r="AC2" t="n">
-        <v>1479.716215585228</v>
+        <v>1618.41232322351</v>
       </c>
       <c r="AD2" t="n">
-        <v>1195574.904862401</v>
+        <v>1307638.004494543</v>
       </c>
       <c r="AE2" t="n">
-        <v>1635838.329874981</v>
+        <v>1789168.006666712</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266977075998844e-06</v>
+        <v>1.826555764098407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.98763020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1479716.215585228</v>
+        <v>1618412.32322351</v>
       </c>
     </row>
     <row r="3">
@@ -2758,28 +2758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>587.7626024528859</v>
+        <v>656.6589526161616</v>
       </c>
       <c r="AB3" t="n">
-        <v>804.2027229319939</v>
+        <v>898.4697487178403</v>
       </c>
       <c r="AC3" t="n">
-        <v>727.4507437609743</v>
+        <v>812.7210569104212</v>
       </c>
       <c r="AD3" t="n">
-        <v>587762.6024528858</v>
+        <v>656658.9526161617</v>
       </c>
       <c r="AE3" t="n">
-        <v>804202.7229319939</v>
+        <v>898469.7487178403</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.988042953518304e-06</v>
+        <v>2.8660907800256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>727450.7437609743</v>
+        <v>812721.0569104212</v>
       </c>
     </row>
     <row r="4">
@@ -2864,28 +2864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>475.6824965047541</v>
+        <v>535.9454788725462</v>
       </c>
       <c r="AB4" t="n">
-        <v>650.8497773484597</v>
+        <v>733.3042484392196</v>
       </c>
       <c r="AC4" t="n">
-        <v>588.7335880717216</v>
+        <v>663.3187201671564</v>
       </c>
       <c r="AD4" t="n">
-        <v>475682.4965047541</v>
+        <v>535945.4788725462</v>
       </c>
       <c r="AE4" t="n">
-        <v>650849.7773484597</v>
+        <v>733304.2484392195</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.262445726278849e-06</v>
+        <v>3.261687492677421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.43424479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>588733.5880717216</v>
+        <v>663318.7201671563</v>
       </c>
     </row>
     <row r="5">
@@ -2970,28 +2970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.745260901079</v>
+        <v>485.0934946148918</v>
       </c>
       <c r="AB5" t="n">
-        <v>581.1552044032754</v>
+        <v>663.7263201466844</v>
       </c>
       <c r="AC5" t="n">
-        <v>525.6905673514782</v>
+        <v>600.3812116976251</v>
       </c>
       <c r="AD5" t="n">
-        <v>424745.2609010789</v>
+        <v>485093.4946148918</v>
       </c>
       <c r="AE5" t="n">
-        <v>581155.2044032754</v>
+        <v>663726.3201466844</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.403148338919251e-06</v>
+        <v>3.464533442308689e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.646484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>525690.5673514782</v>
+        <v>600381.2116976251</v>
       </c>
     </row>
     <row r="6">
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>395.3732355886548</v>
+        <v>447.0881910155351</v>
       </c>
       <c r="AB6" t="n">
-        <v>540.967103568513</v>
+        <v>611.7257870863838</v>
       </c>
       <c r="AC6" t="n">
-        <v>489.3379624560319</v>
+        <v>553.3435365293932</v>
       </c>
       <c r="AD6" t="n">
-        <v>395373.2355886548</v>
+        <v>447088.1910155352</v>
       </c>
       <c r="AE6" t="n">
-        <v>540967.1035685131</v>
+        <v>611725.7870863838</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.498381693194772e-06</v>
+        <v>3.601827980214391e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.16471354166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>489337.9624560319</v>
+        <v>553343.5365293932</v>
       </c>
     </row>
     <row r="7">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>362.4739255255839</v>
+        <v>414.2741322984849</v>
       </c>
       <c r="AB7" t="n">
-        <v>495.9528161250954</v>
+        <v>566.8281442956154</v>
       </c>
       <c r="AC7" t="n">
-        <v>448.6197754282646</v>
+        <v>512.7308617523381</v>
       </c>
       <c r="AD7" t="n">
-        <v>362473.9255255839</v>
+        <v>414274.1322984849</v>
       </c>
       <c r="AE7" t="n">
-        <v>495952.8161250954</v>
+        <v>566828.1442956154</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.567939388229344e-06</v>
+        <v>3.702106833880811e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.8359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>448619.7754282646</v>
+        <v>512730.8617523381</v>
       </c>
     </row>
     <row r="8">
@@ -3288,28 +3288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>358.2232065736449</v>
+        <v>410.0234133465459</v>
       </c>
       <c r="AB8" t="n">
-        <v>490.1367949265674</v>
+        <v>561.0121230970875</v>
       </c>
       <c r="AC8" t="n">
-        <v>443.3588271300872</v>
+        <v>507.4699134541607</v>
       </c>
       <c r="AD8" t="n">
-        <v>358223.2065736449</v>
+        <v>410023.4133465459</v>
       </c>
       <c r="AE8" t="n">
-        <v>490136.7949265674</v>
+        <v>561012.1230970875</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.578209651925723e-06</v>
+        <v>3.716913107576523e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.787109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>443358.8271300872</v>
+        <v>507469.9134541607</v>
       </c>
     </row>
   </sheetData>
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>845.9770258316547</v>
+        <v>930.0660100356644</v>
       </c>
       <c r="AB2" t="n">
-        <v>1157.503088615204</v>
+        <v>1272.557346547293</v>
       </c>
       <c r="AC2" t="n">
-        <v>1047.032618403557</v>
+        <v>1151.106259438272</v>
       </c>
       <c r="AD2" t="n">
-        <v>845977.0258316547</v>
+        <v>930066.0100356643</v>
       </c>
       <c r="AE2" t="n">
-        <v>1157503.088615204</v>
+        <v>1272557.346547293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.556770818866858e-06</v>
+        <v>2.279053914733025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1047032.618403557</v>
+        <v>1151106.259438272</v>
       </c>
     </row>
     <row r="3">
@@ -3691,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.8966802632444</v>
+        <v>535.7333938022449</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.5110771328331</v>
+        <v>733.0140642895001</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.2363357363232</v>
+        <v>663.0562307854102</v>
       </c>
       <c r="AD3" t="n">
-        <v>476896.6802632444</v>
+        <v>535733.3938022449</v>
       </c>
       <c r="AE3" t="n">
-        <v>652511.0771328331</v>
+        <v>733014.0642895001</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226207383302036e-06</v>
+        <v>3.259083861563562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.12434895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>590236.3357363233</v>
+        <v>663056.2307854102</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>390.6279087753943</v>
+        <v>449.4645328058439</v>
       </c>
       <c r="AB4" t="n">
-        <v>534.4743380735663</v>
+        <v>614.977202760685</v>
       </c>
       <c r="AC4" t="n">
-        <v>483.4648573872691</v>
+        <v>556.2846416551295</v>
       </c>
       <c r="AD4" t="n">
-        <v>390627.9087753943</v>
+        <v>449464.5328058439</v>
       </c>
       <c r="AE4" t="n">
-        <v>534474.3380735663</v>
+        <v>614977.202760685</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.477523779299775e-06</v>
+        <v>3.627001611044598e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.68880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>483464.8573872691</v>
+        <v>556284.6416551295</v>
       </c>
     </row>
     <row r="5">
@@ -3903,28 +3903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.1024146980946</v>
+        <v>404.5217046820921</v>
       </c>
       <c r="AB5" t="n">
-        <v>484.4985456859324</v>
+        <v>553.4844425841258</v>
       </c>
       <c r="AC5" t="n">
-        <v>438.2586844836458</v>
+        <v>500.66066420419</v>
       </c>
       <c r="AD5" t="n">
-        <v>354102.4146980946</v>
+        <v>404521.7046820921</v>
       </c>
       <c r="AE5" t="n">
-        <v>484498.5456859324</v>
+        <v>553484.4425841258</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608687371061854e-06</v>
+        <v>3.819020175147305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.05078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>438258.6844836458</v>
+        <v>500660.66420419</v>
       </c>
     </row>
     <row r="6">
@@ -4009,28 +4009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.9783652835076</v>
+        <v>383.4829066135258</v>
       </c>
       <c r="AB6" t="n">
-        <v>455.5956893496066</v>
+        <v>524.6982309004492</v>
       </c>
       <c r="AC6" t="n">
-        <v>412.1142761906453</v>
+        <v>474.6217681619017</v>
       </c>
       <c r="AD6" t="n">
-        <v>332978.3652835076</v>
+        <v>383482.9066135258</v>
       </c>
       <c r="AE6" t="n">
-        <v>455595.6893496066</v>
+        <v>524698.2309004492</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.646549026415856e-06</v>
+        <v>3.874448214269737e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.87825520833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>412114.2761906454</v>
+        <v>474621.7681619017</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.398422873287</v>
+        <v>403.3660510380626</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.1163836106666</v>
+        <v>551.903226284524</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.5354515608258</v>
+        <v>499.2303569689713</v>
       </c>
       <c r="AD2" t="n">
-        <v>341398.422873287</v>
+        <v>403366.0510380625</v>
       </c>
       <c r="AE2" t="n">
-        <v>467116.3836106666</v>
+        <v>551903.226284524</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50966598250245e-06</v>
+        <v>3.882763050319377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.97786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>422535.4515608257</v>
+        <v>499230.3569689713</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.2934716062503</v>
+        <v>336.5791518913577</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.2463817606872</v>
+        <v>460.5224444419605</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.383569185648</v>
+        <v>416.5708286917293</v>
       </c>
       <c r="AD3" t="n">
-        <v>282293.4716062503</v>
+        <v>336579.1518913577</v>
       </c>
       <c r="AE3" t="n">
-        <v>386246.3817606872</v>
+        <v>460522.4444419605</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.788374057343614e-06</v>
+        <v>4.313958843848791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.58138020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>349383.569185648</v>
+        <v>416570.8286917293</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.5273115757266</v>
+        <v>544.6990356696832</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.4786670667203</v>
+        <v>745.2812510287329</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.7298258589767</v>
+        <v>674.1526544393553</v>
       </c>
       <c r="AD2" t="n">
-        <v>480527.3115757266</v>
+        <v>544699.0356696832</v>
       </c>
       <c r="AE2" t="n">
-        <v>657478.6670667203</v>
+        <v>745281.2510287329</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121707749231439e-06</v>
+        <v>3.20652412420467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.81705729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>594729.8258589767</v>
+        <v>674152.6544393552</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.6738950779704</v>
+        <v>365.7174368024173</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.6554380288171</v>
+        <v>500.3907313476772</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.1725330660847</v>
+        <v>452.6341422506565</v>
       </c>
       <c r="AD3" t="n">
-        <v>317673.8950779703</v>
+        <v>365717.4368024173</v>
       </c>
       <c r="AE3" t="n">
-        <v>434655.4380288171</v>
+        <v>500390.7313476772</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.685592464973821e-06</v>
+        <v>4.058719694001314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.49674479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>393172.5330660847</v>
+        <v>452634.1422506565</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.472978413177</v>
+        <v>350.5165201376239</v>
       </c>
       <c r="AB4" t="n">
-        <v>413.8568732309334</v>
+        <v>479.5921665497934</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.358954101542</v>
+        <v>433.8205632861138</v>
       </c>
       <c r="AD4" t="n">
-        <v>302472.978413177</v>
+        <v>350516.5201376239</v>
       </c>
       <c r="AE4" t="n">
-        <v>413856.8732309334</v>
+        <v>479592.1665497934</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.756735352862328e-06</v>
+        <v>4.166237511364578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>374358.954101542</v>
+        <v>433820.5632861138</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.1871022593102</v>
+        <v>321.5400615907082</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.8913778262011</v>
+        <v>439.9452976147738</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.8259551003475</v>
+        <v>397.9575358775223</v>
       </c>
       <c r="AD2" t="n">
-        <v>276187.1022593102</v>
+        <v>321540.0615907082</v>
       </c>
       <c r="AE2" t="n">
-        <v>377891.377826201</v>
+        <v>439945.2976147739</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763431011305845e-06</v>
+        <v>4.367569525509005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.18684895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>341825.9551003475</v>
+        <v>397957.5358775223</v>
       </c>
     </row>
     <row r="3">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.5638680240761</v>
+        <v>322.9168273554741</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.7751294841726</v>
+        <v>441.8290492727452</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.5299241439443</v>
+        <v>399.6615049211191</v>
       </c>
       <c r="AD3" t="n">
-        <v>277563.8680240761</v>
+        <v>322916.8273554741</v>
       </c>
       <c r="AE3" t="n">
-        <v>379775.1294841726</v>
+        <v>441829.0492727453</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767796444287088e-06</v>
+        <v>4.374469039908506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>343529.9241439443</v>
+        <v>399661.5049211191</v>
       </c>
     </row>
   </sheetData>
@@ -5621,28 +5621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>923.277505986745</v>
+        <v>1008.019422019699</v>
       </c>
       <c r="AB2" t="n">
-        <v>1263.2690158199</v>
+        <v>1379.21664388567</v>
       </c>
       <c r="AC2" t="n">
-        <v>1142.704393959247</v>
+        <v>1247.586143135938</v>
       </c>
       <c r="AD2" t="n">
-        <v>923277.505986745</v>
+        <v>1008019.422019699</v>
       </c>
       <c r="AE2" t="n">
-        <v>1263269.0158199</v>
+        <v>1379216.64388567</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.480856762398442e-06</v>
+        <v>2.158920769738094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1142704.393959247</v>
+        <v>1247586.143135938</v>
       </c>
     </row>
     <row r="3">
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>501.6656152891406</v>
+        <v>560.8996425102024</v>
       </c>
       <c r="AB3" t="n">
-        <v>686.4010267635566</v>
+        <v>767.4476360282623</v>
       </c>
       <c r="AC3" t="n">
-        <v>620.8918761391337</v>
+        <v>694.2035107652464</v>
       </c>
       <c r="AD3" t="n">
-        <v>501665.6152891406</v>
+        <v>560899.6425102024</v>
       </c>
       <c r="AE3" t="n">
-        <v>686401.0267635566</v>
+        <v>767447.6360282623</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.162753444922293e-06</v>
+        <v>3.153048593641796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>620891.8761391337</v>
+        <v>694203.5107652463</v>
       </c>
     </row>
     <row r="4">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>410.8938854858018</v>
+        <v>470.1278231983125</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.2031414805379</v>
+        <v>643.2496282756952</v>
       </c>
       <c r="AC4" t="n">
-        <v>508.5472627146994</v>
+        <v>581.8587865595856</v>
       </c>
       <c r="AD4" t="n">
-        <v>410893.8854858018</v>
+        <v>470127.8231983125</v>
       </c>
       <c r="AE4" t="n">
-        <v>562203.1414805378</v>
+        <v>643249.6282756951</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.415162421875605e-06</v>
+        <v>3.521032180339447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.900390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>508547.2627146994</v>
+        <v>581858.7865595856</v>
       </c>
     </row>
     <row r="5">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.9639347319265</v>
+        <v>422.7237793005478</v>
       </c>
       <c r="AB5" t="n">
-        <v>508.9374653908712</v>
+        <v>578.3893240959547</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.3651879921846</v>
+        <v>523.1886587787508</v>
       </c>
       <c r="AD5" t="n">
-        <v>371963.9347319265</v>
+        <v>422723.7793005478</v>
       </c>
       <c r="AE5" t="n">
-        <v>508937.4653908712</v>
+        <v>578389.3240959548</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555198194830742e-06</v>
+        <v>3.725188413687442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.19401041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>460365.1879921847</v>
+        <v>523188.6587787508</v>
       </c>
     </row>
     <row r="6">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.5672398669237</v>
+        <v>390.4123357815657</v>
       </c>
       <c r="AB6" t="n">
-        <v>464.6108782352679</v>
+        <v>534.1793815930006</v>
       </c>
       <c r="AC6" t="n">
-        <v>420.2690681019562</v>
+        <v>483.1980511392347</v>
       </c>
       <c r="AD6" t="n">
-        <v>339567.2398669237</v>
+        <v>390412.3357815658</v>
       </c>
       <c r="AE6" t="n">
-        <v>464610.8782352679</v>
+        <v>534179.3815930006</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.627274023289538e-06</v>
+        <v>3.83026677575924e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.85872395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>420269.0681019562</v>
+        <v>483198.0511392347</v>
       </c>
     </row>
     <row r="7">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>339.3743205410005</v>
+        <v>390.2194164556425</v>
       </c>
       <c r="AB7" t="n">
-        <v>464.3469175025397</v>
+        <v>533.9154208602725</v>
       </c>
       <c r="AC7" t="n">
-        <v>420.0302994110884</v>
+        <v>482.9592824483669</v>
       </c>
       <c r="AD7" t="n">
-        <v>339374.3205410005</v>
+        <v>390219.4164556425</v>
       </c>
       <c r="AE7" t="n">
-        <v>464346.9175025397</v>
+        <v>533915.4208602726</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.630528443166827e-06</v>
+        <v>3.835011349876692e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.845703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>420030.2994110885</v>
+        <v>482959.2824483669</v>
       </c>
     </row>
   </sheetData>
@@ -6448,28 +6448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.9092334828863</v>
+        <v>321.9567673501929</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.3017208062743</v>
+        <v>440.5154528186615</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.0560828907432</v>
+        <v>398.4732762689687</v>
       </c>
       <c r="AD2" t="n">
-        <v>269909.2334828863</v>
+        <v>321956.7673501929</v>
       </c>
       <c r="AE2" t="n">
-        <v>369301.7208062743</v>
+        <v>440515.4528186615</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721283115817649e-06</v>
+        <v>4.360134774624883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.701171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>334056.0828907432</v>
+        <v>398473.2762689687</v>
       </c>
     </row>
   </sheetData>
@@ -6745,28 +6745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>641.7043785188645</v>
+        <v>723.8658250294502</v>
       </c>
       <c r="AB2" t="n">
-        <v>878.008240688672</v>
+        <v>990.4251565116565</v>
       </c>
       <c r="AC2" t="n">
-        <v>794.2123664896498</v>
+        <v>895.9003696446209</v>
       </c>
       <c r="AD2" t="n">
-        <v>641704.3785188645</v>
+        <v>723865.8250294502</v>
       </c>
       <c r="AE2" t="n">
-        <v>878008.2406886721</v>
+        <v>990425.1565116565</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.813730507320552e-06</v>
+        <v>2.693105405221108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.861328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>794212.3664896498</v>
+        <v>895900.3696446209</v>
       </c>
     </row>
     <row r="3">
@@ -6851,28 +6851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>396.8497520427399</v>
+        <v>454.3116495959579</v>
       </c>
       <c r="AB3" t="n">
-        <v>542.987338520301</v>
+        <v>621.6092417926199</v>
       </c>
       <c r="AC3" t="n">
-        <v>491.1653890194387</v>
+        <v>562.2837281899816</v>
       </c>
       <c r="AD3" t="n">
-        <v>396849.7520427398</v>
+        <v>454311.6495959579</v>
       </c>
       <c r="AE3" t="n">
-        <v>542987.338520301</v>
+        <v>621609.2417926198</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436286090212978e-06</v>
+        <v>3.617502827313901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29752604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>491165.3890194387</v>
+        <v>562283.7281899817</v>
       </c>
     </row>
     <row r="4">
@@ -6957,28 +6957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.0997439316408</v>
+        <v>382.4137695174576</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.7617649708304</v>
+        <v>523.2353903586089</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.2645017876682</v>
+        <v>473.2985390682651</v>
       </c>
       <c r="AD4" t="n">
-        <v>333099.7439316408</v>
+        <v>382413.7695174576</v>
       </c>
       <c r="AE4" t="n">
-        <v>455761.7649708304</v>
+        <v>523235.3903586089</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.661484824881387e-06</v>
+        <v>3.951887636488452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.17122395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>412264.5017876682</v>
+        <v>473298.5390682651</v>
       </c>
     </row>
     <row r="5">
@@ -7063,28 +7063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>312.7193702475575</v>
+        <v>370.1811782922247</v>
       </c>
       <c r="AB5" t="n">
-        <v>427.8764385776373</v>
+        <v>506.4982193804077</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.0405118081401</v>
+        <v>458.1587401974566</v>
       </c>
       <c r="AD5" t="n">
-        <v>312719.3702475575</v>
+        <v>370181.1782922246</v>
       </c>
       <c r="AE5" t="n">
-        <v>427876.4385776373</v>
+        <v>506498.2193804077</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.708654157728416e-06</v>
+        <v>4.021926699479499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>387040.5118081401</v>
+        <v>458158.7401974566</v>
       </c>
     </row>
   </sheetData>
@@ -7360,28 +7360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.6704881204068</v>
+        <v>856.0849571362817</v>
       </c>
       <c r="AB2" t="n">
-        <v>1057.20184966248</v>
+        <v>1171.333206156652</v>
       </c>
       <c r="AC2" t="n">
-        <v>956.3039889228072</v>
+        <v>1059.542808937541</v>
       </c>
       <c r="AD2" t="n">
-        <v>772670.4881204069</v>
+        <v>856084.9571362816</v>
       </c>
       <c r="AE2" t="n">
-        <v>1057201.84966248</v>
+        <v>1171333.206156652</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638542406190018e-06</v>
+        <v>2.409382357937435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.37174479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>956303.9889228072</v>
+        <v>1059542.808937541</v>
       </c>
     </row>
     <row r="3">
@@ -7466,28 +7466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.4412435249452</v>
+        <v>502.9507863764721</v>
       </c>
       <c r="AB3" t="n">
-        <v>608.1041167546771</v>
+        <v>688.1594545429905</v>
       </c>
       <c r="AC3" t="n">
-        <v>550.0675133310981</v>
+        <v>622.4824820392673</v>
       </c>
       <c r="AD3" t="n">
-        <v>444441.2435249452</v>
+        <v>502950.7863764721</v>
       </c>
       <c r="AE3" t="n">
-        <v>608104.116754677</v>
+        <v>688159.4545429905</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292106806588214e-06</v>
+        <v>3.370411215137948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.84765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>550067.5133310981</v>
+        <v>622482.4820392673</v>
       </c>
     </row>
     <row r="4">
@@ -7572,28 +7572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.9708570820507</v>
+        <v>422.2072346665026</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.9469368557037</v>
+        <v>577.682564939313</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.3737555137068</v>
+        <v>522.5493517240764</v>
       </c>
       <c r="AD4" t="n">
-        <v>371970.8570820507</v>
+        <v>422207.2346665026</v>
       </c>
       <c r="AE4" t="n">
-        <v>508946.9368557037</v>
+        <v>577682.564939313</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535767471453959e-06</v>
+        <v>3.728700207252536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.51627604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>460373.7555137068</v>
+        <v>522549.3517240763</v>
       </c>
     </row>
     <row r="5">
@@ -7678,28 +7678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.1670087208635</v>
+        <v>386.5058698632471</v>
       </c>
       <c r="AB5" t="n">
-        <v>449.012579038526</v>
+        <v>528.8343825824442</v>
       </c>
       <c r="AC5" t="n">
-        <v>406.1594486882009</v>
+        <v>478.3631713324925</v>
       </c>
       <c r="AD5" t="n">
-        <v>328167.0087208635</v>
+        <v>386505.8698632471</v>
       </c>
       <c r="AE5" t="n">
-        <v>449012.579038526</v>
+        <v>528834.3825824441</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.662814228684878e-06</v>
+        <v>3.915515155922128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.92057291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>406159.4486882009</v>
+        <v>478363.1713324925</v>
       </c>
     </row>
     <row r="6">
@@ -7784,28 +7784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>326.6138209510954</v>
+        <v>384.9526820934791</v>
       </c>
       <c r="AB6" t="n">
-        <v>446.8874390101209</v>
+        <v>526.7092425540392</v>
       </c>
       <c r="AC6" t="n">
-        <v>404.2371290414541</v>
+        <v>476.4408516857457</v>
       </c>
       <c r="AD6" t="n">
-        <v>326613.8209510954</v>
+        <v>384952.6820934791</v>
       </c>
       <c r="AE6" t="n">
-        <v>446887.4390101209</v>
+        <v>526709.2425540392</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.668859431254576e-06</v>
+        <v>3.924404278575631e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.89127604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>404237.1290414541</v>
+        <v>476440.8516857456</v>
       </c>
     </row>
   </sheetData>
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1093.14705384065</v>
+        <v>1196.045655486029</v>
       </c>
       <c r="AB2" t="n">
-        <v>1495.692025309156</v>
+        <v>1636.482431646281</v>
       </c>
       <c r="AC2" t="n">
-        <v>1352.945277630592</v>
+        <v>1480.298845187478</v>
       </c>
       <c r="AD2" t="n">
-        <v>1093147.05384065</v>
+        <v>1196045.655486029</v>
       </c>
       <c r="AE2" t="n">
-        <v>1495692.025309156</v>
+        <v>1636482.431646281</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.335549139712507e-06</v>
+        <v>1.932235776636739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.939453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1352945.277630592</v>
+        <v>1480298.845187478</v>
       </c>
     </row>
     <row r="3">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.4083029171281</v>
+        <v>622.4823588839835</v>
       </c>
       <c r="AB3" t="n">
-        <v>769.5118517544182</v>
+        <v>851.7078254085715</v>
       </c>
       <c r="AC3" t="n">
-        <v>696.070720639643</v>
+        <v>770.4220259310174</v>
       </c>
       <c r="AD3" t="n">
-        <v>562408.3029171282</v>
+        <v>622482.3588839835</v>
       </c>
       <c r="AE3" t="n">
-        <v>769511.8517544182</v>
+        <v>851707.8254085715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.041109840186375e-06</v>
+        <v>2.953021599865943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.009765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>696070.720639643</v>
+        <v>770422.0259310174</v>
       </c>
     </row>
     <row r="4">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>456.6713374269844</v>
+        <v>516.5747116846965</v>
       </c>
       <c r="AB4" t="n">
-        <v>624.8378707851101</v>
+        <v>706.8003101948681</v>
       </c>
       <c r="AC4" t="n">
-        <v>565.2042213628381</v>
+        <v>639.344280590335</v>
       </c>
       <c r="AD4" t="n">
-        <v>456671.3374269844</v>
+        <v>516574.7116846965</v>
       </c>
       <c r="AE4" t="n">
-        <v>624837.8707851102</v>
+        <v>706800.3101948681</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.312153566658929e-06</v>
+        <v>3.345160211430583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.24869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>565204.2213628381</v>
+        <v>639344.2805903349</v>
       </c>
     </row>
     <row r="5">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.7127410635949</v>
+        <v>459.1194609675493</v>
       </c>
       <c r="AB5" t="n">
-        <v>557.8505593398874</v>
+        <v>628.1875014168993</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.6100849046651</v>
+        <v>568.2341679483653</v>
       </c>
       <c r="AD5" t="n">
-        <v>407712.7410635949</v>
+        <v>459119.4609675494</v>
       </c>
       <c r="AE5" t="n">
-        <v>557850.5593398873</v>
+        <v>628187.5014168993</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.451251701286163e-06</v>
+        <v>3.546403568337714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.49674479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>504610.0849046651</v>
+        <v>568234.1679483653</v>
       </c>
     </row>
     <row r="6">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>376.9762300628192</v>
+        <v>428.3829499667738</v>
       </c>
       <c r="AB6" t="n">
-        <v>515.7955089894624</v>
+        <v>586.1324510664745</v>
       </c>
       <c r="AC6" t="n">
-        <v>466.5687095350509</v>
+        <v>530.192792578751</v>
       </c>
       <c r="AD6" t="n">
-        <v>376976.2300628193</v>
+        <v>428382.9499667737</v>
       </c>
       <c r="AE6" t="n">
-        <v>515795.5089894624</v>
+        <v>586132.4510664744</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.549693276942515e-06</v>
+        <v>3.688826133510149e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.01497395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>466568.7095350509</v>
+        <v>530192.792578751</v>
       </c>
     </row>
     <row r="7">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>351.9501296166113</v>
+        <v>403.4421008665864</v>
       </c>
       <c r="AB7" t="n">
-        <v>481.5536942853306</v>
+        <v>552.0072810149919</v>
       </c>
       <c r="AC7" t="n">
-        <v>435.5948855675927</v>
+        <v>499.3244808620051</v>
       </c>
       <c r="AD7" t="n">
-        <v>351950.1296166113</v>
+        <v>403442.1008665864</v>
       </c>
       <c r="AE7" t="n">
-        <v>481553.6942853306</v>
+        <v>552007.2810149919</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.5911027351536e-06</v>
+        <v>3.748736199165858e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>435594.8855675926</v>
+        <v>499324.4808620051</v>
       </c>
     </row>
     <row r="8">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>352.091122181013</v>
+        <v>403.5830934309881</v>
       </c>
       <c r="AB8" t="n">
-        <v>481.746606532098</v>
+        <v>552.2001932617593</v>
       </c>
       <c r="AC8" t="n">
-        <v>435.7693865402826</v>
+        <v>499.498981834695</v>
       </c>
       <c r="AD8" t="n">
-        <v>352091.122181013</v>
+        <v>403583.0934309881</v>
       </c>
       <c r="AE8" t="n">
-        <v>481746.606532098</v>
+        <v>552200.1932617592</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.596655367050086e-06</v>
+        <v>3.756769594333328e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>435769.3865402826</v>
+        <v>499498.981834695</v>
       </c>
     </row>
   </sheetData>
@@ -9014,28 +9014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.3442573869198</v>
+        <v>599.0254799064908</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.1133865616789</v>
+        <v>819.6130887471012</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.3369510723143</v>
+        <v>741.3903658912718</v>
       </c>
       <c r="AD2" t="n">
-        <v>534344.2573869198</v>
+        <v>599025.4799064908</v>
       </c>
       <c r="AE2" t="n">
-        <v>731113.386561679</v>
+        <v>819613.0887471011</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.011054346639377e-06</v>
+        <v>3.019969370336184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.48111979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>661336.9510723143</v>
+        <v>741390.3658912719</v>
       </c>
     </row>
     <row r="3">
@@ -9120,28 +9120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.803601075511</v>
+        <v>398.3889248533319</v>
       </c>
       <c r="AB3" t="n">
-        <v>467.6707663021503</v>
+        <v>545.093302663265</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.0369247463152</v>
+        <v>493.0703629003376</v>
       </c>
       <c r="AD3" t="n">
-        <v>341803.601075511</v>
+        <v>398388.9248533319</v>
       </c>
       <c r="AE3" t="n">
-        <v>467670.7663021503</v>
+        <v>545093.302663265</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.595779190338746e-06</v>
+        <v>3.898041671563436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.76692708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>423036.9247463152</v>
+        <v>493070.3629003376</v>
       </c>
     </row>
     <row r="4">
@@ -9226,28 +9226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.321179860655</v>
+        <v>356.8107839138281</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.8586404558116</v>
+        <v>488.2042559317159</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.5970438930287</v>
+        <v>441.6107269445688</v>
       </c>
       <c r="AD4" t="n">
-        <v>308321.179860655</v>
+        <v>356810.7839138281</v>
       </c>
       <c r="AE4" t="n">
-        <v>421858.6404558116</v>
+        <v>488204.2559317159</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.743309453009891e-06</v>
+        <v>4.119585597121209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.080078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>381597.0438930287</v>
+        <v>441610.7269445688</v>
       </c>
     </row>
   </sheetData>
@@ -9523,28 +9523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.4428481767185</v>
+        <v>452.2230432587903</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.8528858812742</v>
+        <v>618.7515184592986</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.998154316487</v>
+        <v>559.6987419607527</v>
       </c>
       <c r="AD2" t="n">
-        <v>389442.8481767185</v>
+        <v>452223.0432587903</v>
       </c>
       <c r="AE2" t="n">
-        <v>532852.8858812742</v>
+        <v>618751.5184592986</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.365829452498734e-06</v>
+        <v>3.628583231178569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.59309895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>481998.154316487</v>
+        <v>559698.7419607528</v>
       </c>
     </row>
     <row r="3">
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.0697799000122</v>
+        <v>336.1336805064742</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.5180257178354</v>
+        <v>459.9129308403526</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.7703404563599</v>
+        <v>416.0194862128012</v>
       </c>
       <c r="AD3" t="n">
-        <v>289069.7799000122</v>
+        <v>336133.6805064742</v>
       </c>
       <c r="AE3" t="n">
-        <v>395518.0257178353</v>
+        <v>459912.9308403526</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779772714842508e-06</v>
+        <v>4.263467364019828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.41861979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>357770.3404563599</v>
+        <v>416019.4862128011</v>
       </c>
     </row>
   </sheetData>
@@ -16971,28 +16971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.5991811932217</v>
+        <v>355.1064096232693</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.6613053253778</v>
+        <v>485.8722558356866</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.2774895189027</v>
+        <v>439.5012896647218</v>
       </c>
       <c r="AD2" t="n">
-        <v>301599.1811932217</v>
+        <v>355106.4096232693</v>
       </c>
       <c r="AE2" t="n">
-        <v>412661.3053253778</v>
+        <v>485872.2558356866</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.672470305139172e-06</v>
+        <v>4.175682136326264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.36263020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>373277.4895189027</v>
+        <v>439501.2896647218</v>
       </c>
     </row>
     <row r="3">
@@ -17077,28 +17077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.1556987715225</v>
+        <v>329.7481785475907</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.8484101887858</v>
+        <v>451.1760053517438</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.7870882339417</v>
+        <v>408.1164006304732</v>
       </c>
       <c r="AD3" t="n">
-        <v>276155.6987715225</v>
+        <v>329748.1785475907</v>
       </c>
       <c r="AE3" t="n">
-        <v>377848.4101887858</v>
+        <v>451176.0053517438</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.784376364962726e-06</v>
+        <v>4.35053314741263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.82552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>341787.0882339418</v>
+        <v>408116.4006304732</v>
       </c>
     </row>
   </sheetData>
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.6511005624335</v>
+        <v>329.8998089811794</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.6850201902628</v>
+        <v>451.3834728004425</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.2119235265055</v>
+        <v>408.3040676770503</v>
       </c>
       <c r="AD2" t="n">
-        <v>271651.1005624335</v>
+        <v>329899.8089811794</v>
       </c>
       <c r="AE2" t="n">
-        <v>371685.0201902628</v>
+        <v>451383.4728004425</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.622622750432338e-06</v>
+        <v>4.274025702493184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.61588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>336211.9235265055</v>
+        <v>408304.0676770504</v>
       </c>
     </row>
   </sheetData>
@@ -17671,28 +17671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>705.3908138443049</v>
+        <v>788.2774293819454</v>
       </c>
       <c r="AB2" t="n">
-        <v>965.1468311481713</v>
+        <v>1078.555955226171</v>
       </c>
       <c r="AC2" t="n">
-        <v>873.0345721754742</v>
+        <v>975.6200886221754</v>
       </c>
       <c r="AD2" t="n">
-        <v>705390.813844305</v>
+        <v>788277.4293819454</v>
       </c>
       <c r="AE2" t="n">
-        <v>965146.8311481712</v>
+        <v>1078555.955226171</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.723144077398186e-06</v>
+        <v>2.545739983798601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.603515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>873034.5721754741</v>
+        <v>975620.0886221754</v>
       </c>
     </row>
     <row r="3">
@@ -17777,28 +17777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.1664244118887</v>
+        <v>479.2467938864371</v>
       </c>
       <c r="AB3" t="n">
-        <v>576.2584824316427</v>
+        <v>655.7266062717811</v>
       </c>
       <c r="AC3" t="n">
-        <v>521.2611816522257</v>
+        <v>593.1449792872736</v>
       </c>
       <c r="AD3" t="n">
-        <v>421166.4244118887</v>
+        <v>479246.7938864371</v>
       </c>
       <c r="AE3" t="n">
-        <v>576258.4824316427</v>
+        <v>655726.606271781</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.36009092232969e-06</v>
+        <v>3.486753026158262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.583984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>521261.1816522257</v>
+        <v>593144.9792872736</v>
       </c>
     </row>
     <row r="4">
@@ -17883,28 +17883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.3080485881325</v>
+        <v>403.0059710774391</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.4116589293229</v>
+        <v>551.4105489967922</v>
       </c>
       <c r="AC4" t="n">
-        <v>437.275528673632</v>
+        <v>498.7847001101036</v>
       </c>
       <c r="AD4" t="n">
-        <v>353308.0485881325</v>
+        <v>403005.9710774391</v>
       </c>
       <c r="AE4" t="n">
-        <v>483411.6589293229</v>
+        <v>551410.5489967922</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.594957685650908e-06</v>
+        <v>3.833740673967135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.353515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>437275.528673632</v>
+        <v>498784.7001101036</v>
       </c>
     </row>
     <row r="5">
@@ -17989,28 +17989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>319.0799206657202</v>
+        <v>376.9896084311254</v>
       </c>
       <c r="AB5" t="n">
-        <v>436.5792242674477</v>
+        <v>515.8138138631907</v>
       </c>
       <c r="AC5" t="n">
-        <v>394.9127158461514</v>
+        <v>466.5852674173216</v>
       </c>
       <c r="AD5" t="n">
-        <v>319079.9206657202</v>
+        <v>376989.6084311254</v>
       </c>
       <c r="AE5" t="n">
-        <v>436579.2242674477</v>
+        <v>515813.8138631908</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.690972400216187e-06</v>
+        <v>3.975590970241203e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.91080729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>394912.7158461514</v>
+        <v>466585.2674173216</v>
       </c>
     </row>
     <row r="6">
@@ -18095,28 +18095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.4808803866089</v>
+        <v>378.3905681520141</v>
       </c>
       <c r="AB6" t="n">
-        <v>438.4960791635484</v>
+        <v>517.7306687592916</v>
       </c>
       <c r="AC6" t="n">
-        <v>396.646628801291</v>
+        <v>468.3191803724613</v>
       </c>
       <c r="AD6" t="n">
-        <v>320480.8803866089</v>
+        <v>378390.568152014</v>
       </c>
       <c r="AE6" t="n">
-        <v>438496.0791635484</v>
+        <v>517730.6687592915</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.690381540434246e-06</v>
+        <v>3.974718045341056e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>396646.628801291</v>
+        <v>468319.1803724613</v>
       </c>
     </row>
   </sheetData>
@@ -18392,28 +18392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1001.281745049027</v>
+        <v>1103.458857428363</v>
       </c>
       <c r="AB2" t="n">
-        <v>1369.997857009066</v>
+        <v>1509.801089902532</v>
       </c>
       <c r="AC2" t="n">
-        <v>1239.247184340189</v>
+        <v>1365.707792901372</v>
       </c>
       <c r="AD2" t="n">
-        <v>1001281.745049027</v>
+        <v>1103458.857428363</v>
       </c>
       <c r="AE2" t="n">
-        <v>1369997.857009066</v>
+        <v>1509801.089902532</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.405587919713807e-06</v>
+        <v>2.041151225750553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.97591145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1239247.184340189</v>
+        <v>1365707.792901372</v>
       </c>
     </row>
     <row r="3">
@@ -18498,28 +18498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.1031659783546</v>
+        <v>595.2496878494362</v>
       </c>
       <c r="AB3" t="n">
-        <v>721.2058058420731</v>
+        <v>814.4468834784499</v>
       </c>
       <c r="AC3" t="n">
-        <v>652.3749359512107</v>
+        <v>736.7172160026461</v>
       </c>
       <c r="AD3" t="n">
-        <v>527103.1659783546</v>
+        <v>595249.6878494362</v>
       </c>
       <c r="AE3" t="n">
-        <v>721205.8058420732</v>
+        <v>814446.8834784499</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.100885157611665e-06</v>
+        <v>3.050840331278119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.70377604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>652374.9359512107</v>
+        <v>736717.216002646</v>
       </c>
     </row>
     <row r="4">
@@ -18604,28 +18604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>438.8458848958082</v>
+        <v>490.0198714485991</v>
       </c>
       <c r="AB4" t="n">
-        <v>600.4483002284908</v>
+        <v>670.4668062669699</v>
       </c>
       <c r="AC4" t="n">
-        <v>543.1423571891651</v>
+        <v>606.4783952829222</v>
       </c>
       <c r="AD4" t="n">
-        <v>438845.8848958082</v>
+        <v>490019.8714485991</v>
       </c>
       <c r="AE4" t="n">
-        <v>600448.3002284907</v>
+        <v>670466.8062669699</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.359854198450105e-06</v>
+        <v>3.426907148390815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.08919270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>543142.3571891651</v>
+        <v>606478.3952829222</v>
       </c>
     </row>
     <row r="5">
@@ -18710,28 +18710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>389.2978418367576</v>
+        <v>440.3864875349769</v>
       </c>
       <c r="AB5" t="n">
-        <v>532.6544818097116</v>
+        <v>602.5562207259929</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.8186856510524</v>
+        <v>545.0491007128708</v>
       </c>
       <c r="AD5" t="n">
-        <v>389297.8418367576</v>
+        <v>440386.4875349769</v>
       </c>
       <c r="AE5" t="n">
-        <v>532654.4818097115</v>
+        <v>602556.2207259929</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.504759191253439e-06</v>
+        <v>3.637333689149733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.333984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>481818.6856510524</v>
+        <v>545049.1007128707</v>
       </c>
     </row>
     <row r="6">
@@ -18816,28 +18816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.5675305248643</v>
+        <v>412.0997287006676</v>
       </c>
       <c r="AB6" t="n">
-        <v>482.3984494458082</v>
+        <v>563.8530293651654</v>
       </c>
       <c r="AC6" t="n">
-        <v>436.3590184811756</v>
+        <v>510.0396876152502</v>
       </c>
       <c r="AD6" t="n">
-        <v>352567.5305248643</v>
+        <v>412099.7287006676</v>
       </c>
       <c r="AE6" t="n">
-        <v>482398.4494458082</v>
+        <v>563853.0293651654</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.594719854761993e-06</v>
+        <v>3.767971777322264e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.904296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>436359.0184811755</v>
+        <v>510039.6876152502</v>
       </c>
     </row>
     <row r="7">
@@ -18922,28 +18922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.5488807954413</v>
+        <v>395.7227778396812</v>
       </c>
       <c r="AB7" t="n">
-        <v>471.4269791281525</v>
+        <v>541.4453626970833</v>
       </c>
       <c r="AC7" t="n">
-        <v>426.4346498920816</v>
+        <v>489.7705772046122</v>
       </c>
       <c r="AD7" t="n">
-        <v>344548.8807954413</v>
+        <v>395722.7778396812</v>
       </c>
       <c r="AE7" t="n">
-        <v>471426.9791281525</v>
+        <v>541445.3626970833</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.617589601497817e-06</v>
+        <v>3.801182514927306e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.80013020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>426434.6498920816</v>
+        <v>489770.5772046122</v>
       </c>
     </row>
   </sheetData>
@@ -19219,28 +19219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.6983994422151</v>
+        <v>347.6540343199936</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.168666006896</v>
+        <v>475.67558717015</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.1223933213415</v>
+        <v>430.2777767455097</v>
       </c>
       <c r="AD2" t="n">
-        <v>283698.3994422152</v>
+        <v>347654.0343199936</v>
       </c>
       <c r="AE2" t="n">
-        <v>388168.6660068961</v>
+        <v>475675.58717015</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384678721840981e-06</v>
+        <v>3.97511735243567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.64388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>351122.3933213415</v>
+        <v>430277.7767455097</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.078588105563</v>
+        <v>502.4483237114977</v>
       </c>
       <c r="AB2" t="n">
-        <v>600.7666950262181</v>
+        <v>687.4719629576841</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.4303648342674</v>
+        <v>621.8606036859621</v>
       </c>
       <c r="AD2" t="n">
-        <v>439078.588105563</v>
+        <v>502448.3237114977</v>
       </c>
       <c r="AE2" t="n">
-        <v>600766.6950262182</v>
+        <v>687471.9629576842</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.235403672671269e-06</v>
+        <v>3.40207565165973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.21809895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>543430.3648342674</v>
+        <v>621860.6036859622</v>
       </c>
     </row>
     <row r="3">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.7838077555498</v>
+        <v>344.3538022644244</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.0726989486723</v>
+        <v>471.1600640757576</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.3176904876227</v>
+        <v>426.1932088376698</v>
       </c>
       <c r="AD3" t="n">
-        <v>296783.8077555498</v>
+        <v>344353.8022644244</v>
       </c>
       <c r="AE3" t="n">
-        <v>406072.6989486723</v>
+        <v>471160.0640757576</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.763606494761155e-06</v>
+        <v>4.205951024210493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>367317.6904876227</v>
+        <v>426193.2088376698</v>
       </c>
     </row>
     <row r="4">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.8929862845878</v>
+        <v>343.4629807934625</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.8538377118325</v>
+        <v>469.9412028389178</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.2151556565444</v>
+        <v>425.0906740065914</v>
       </c>
       <c r="AD4" t="n">
-        <v>295892.9862845878</v>
+        <v>343462.9807934625</v>
       </c>
       <c r="AE4" t="n">
-        <v>404853.8377118324</v>
+        <v>469941.2028389178</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.773953166582861e-06</v>
+        <v>4.22169769256873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>366215.1556565444</v>
+        <v>425090.6740065914</v>
       </c>
     </row>
   </sheetData>
@@ -20025,28 +20025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.8402090566792</v>
+        <v>655.1700677894796</v>
       </c>
       <c r="AB2" t="n">
-        <v>807.0453959448384</v>
+        <v>896.4325908130114</v>
       </c>
       <c r="AC2" t="n">
-        <v>730.0221160511894</v>
+        <v>810.8783224968601</v>
       </c>
       <c r="AD2" t="n">
-        <v>589840.2090566792</v>
+        <v>655170.0677894796</v>
       </c>
       <c r="AE2" t="n">
-        <v>807045.3959448384</v>
+        <v>896432.5908130114</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.910821220027419e-06</v>
+        <v>2.852685433741861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.14192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>730022.1160511894</v>
+        <v>810878.3224968601</v>
       </c>
     </row>
     <row r="3">
@@ -20131,28 +20131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.4919799657545</v>
+        <v>423.4893963924927</v>
       </c>
       <c r="AB3" t="n">
-        <v>512.3964484092792</v>
+        <v>579.4368751777959</v>
       </c>
       <c r="AC3" t="n">
-        <v>463.4940505260288</v>
+        <v>524.1362330555884</v>
       </c>
       <c r="AD3" t="n">
-        <v>374491.9799657546</v>
+        <v>423489.3963924927</v>
       </c>
       <c r="AE3" t="n">
-        <v>512396.4484092792</v>
+        <v>579436.8751777959</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.50942445530615e-06</v>
+        <v>3.746346605165259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.05338541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>463494.0505260288</v>
+        <v>524136.2330555883</v>
       </c>
     </row>
     <row r="4">
@@ -20237,28 +20237,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.2759915315347</v>
+        <v>365.1880671037012</v>
       </c>
       <c r="AB4" t="n">
-        <v>432.7427647254319</v>
+        <v>499.666424371751</v>
       </c>
       <c r="AC4" t="n">
-        <v>391.4424026183208</v>
+        <v>451.9789621159416</v>
       </c>
       <c r="AD4" t="n">
-        <v>316275.9915315347</v>
+        <v>365188.0671037012</v>
       </c>
       <c r="AE4" t="n">
-        <v>432742.7647254319</v>
+        <v>499666.424371751</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.719222361770456e-06</v>
+        <v>4.059556143309113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>391442.4026183208</v>
+        <v>451978.9621159416</v>
       </c>
     </row>
     <row r="5">
@@ -20343,28 +20343,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.4620719343541</v>
+        <v>364.3741475065207</v>
       </c>
       <c r="AB5" t="n">
-        <v>431.6291240249711</v>
+        <v>498.5527836712904</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.4350462233075</v>
+        <v>450.9716057209282</v>
       </c>
       <c r="AD5" t="n">
-        <v>315462.0719343541</v>
+        <v>364374.1475065207</v>
       </c>
       <c r="AE5" t="n">
-        <v>431629.1240249712</v>
+        <v>498552.7836712904</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.726064691573609e-06</v>
+        <v>4.069771130644261e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.01497395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>390435.0462233075</v>
+        <v>450971.6057209282</v>
       </c>
     </row>
   </sheetData>
